--- a/unemployment_survey.xlsx
+++ b/unemployment_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timofeyzhukov/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B92B460-97FE-894D-AFD7-729806F9DEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1295B5-4936-2C46-880B-355F8C3D695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF(C4:C503,"Безработный")</f>
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -517,7 +517,7 @@
       </c>
       <c r="G6" s="3">
         <f>(G5/G4)</f>
-        <v>0.128</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="C307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -6007,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="G5">
         <f>COUNTIF(C4:C503,"Безработный")</f>
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="G6" s="3">
         <f>(G5/G4)</f>
-        <v>0.154</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6162,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6195,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6745,7 +6745,7 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -6811,7 +6811,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -7020,7 +7020,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -8252,7 +8252,7 @@
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -8273,8 +8273,8 @@
       <c r="B206" t="s">
         <v>11</v>
       </c>
-      <c r="C206" t="s">
-        <v>5</v>
+      <c r="C206" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
         <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -8340,7 +8340,7 @@
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -8912,7 +8912,7 @@
         <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -8923,7 +8923,7 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -8934,7 +8934,7 @@
         <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -8945,7 +8945,7 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -8956,7 +8956,7 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -9275,7 +9275,7 @@
         <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -9286,7 +9286,7 @@
         <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -9913,7 +9913,7 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -11112,7 +11112,7 @@
         <v>11</v>
       </c>
       <c r="C464" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -11123,7 +11123,7 @@
         <v>11</v>
       </c>
       <c r="C465" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -11541,7 +11541,7 @@
         <v>11</v>
       </c>
       <c r="C503" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
